--- a/FDR_Consolidated_(-15,20)_updated_v1.xlsx
+++ b/FDR_Consolidated_(-15,20)_updated_v1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>FDR</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Block diagonal</t>
+  </si>
+  <si>
+    <t>Linear Model</t>
+  </si>
+  <si>
+    <t>target_fdr</t>
   </si>
 </sst>
 </file>
@@ -869,20 +875,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -892,8 +901,17 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.01</v>
       </c>
@@ -903,8 +921,17 @@
       <c r="C3" s="1">
         <v>0.21633333333333299</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.34217275089839E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.79833333333333301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -914,8 +941,17 @@
       <c r="C4" s="1">
         <v>0.21633333333333299</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.34217275089839E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.79833333333333301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.1</v>
       </c>
@@ -925,8 +961,17 @@
       <c r="C5" s="1">
         <v>0.21633333333333299</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.3760189047445399E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.79833333333333301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.15</v>
       </c>
@@ -936,8 +981,17 @@
       <c r="C6" s="1">
         <v>0.21866666666666701</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.5629847167103498E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.79866666666666697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -947,8 +1001,17 @@
       <c r="C7" s="1">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.3892497059506303E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.80333333333333301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -958,8 +1021,17 @@
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.01</v>
       </c>
@@ -969,8 +1041,17 @@
       <c r="C10" s="2">
         <v>0.32566666666666699</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.1246556985687398E-3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.05</v>
       </c>
@@ -980,8 +1061,17 @@
       <c r="C11" s="2">
         <v>0.32566666666666699</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.1246556985687398E-3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.1</v>
       </c>
@@ -991,8 +1081,17 @@
       <c r="C12" s="2">
         <v>0.32833333333333298</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.1246556985687398E-3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.15</v>
       </c>
@@ -1002,8 +1101,17 @@
       <c r="C13" s="2">
         <v>0.33733333333333299</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.5215595193856097E-3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.77666666666666695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.2</v>
       </c>
@@ -1013,8 +1121,17 @@
       <c r="C14" s="2">
         <v>0.34599999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.7382261860522699E-3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.77833333333333299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1024,8 +1141,17 @@
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.01</v>
       </c>
@@ -1035,8 +1161,17 @@
       <c r="C17" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.7687473129464003E-2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.669333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.05</v>
       </c>
@@ -1046,8 +1181,17 @@
       <c r="C18" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.7687473129464003E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.669333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.1</v>
       </c>
@@ -1057,8 +1201,17 @@
       <c r="C19" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4.7687473129464003E-2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.669333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.15</v>
       </c>
@@ -1068,8 +1221,17 @@
       <c r="C20" s="3">
         <v>0.17199999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4.9682061874052698E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.2</v>
       </c>
@@ -1079,8 +1241,17 @@
       <c r="C21" s="3">
         <v>0.176666666666667</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5.8022516664621902E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.67333333333333301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -1090,8 +1261,17 @@
       <c r="C23" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>0.01</v>
       </c>
@@ -1101,8 +1281,17 @@
       <c r="C24" s="4">
         <v>0.134333333333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.09490079288504E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.61633333333333296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>0.05</v>
       </c>
@@ -1112,8 +1301,17 @@
       <c r="C25" s="4">
         <v>0.134333333333333</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.09490079288504E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.61633333333333296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>0.1</v>
       </c>
@@ -1123,8 +1321,17 @@
       <c r="C26" s="4">
         <v>0.136333333333333</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.28509232522761E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.61833333333333296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>0.15</v>
       </c>
@@ -1134,8 +1341,17 @@
       <c r="C27" s="4">
         <v>0.140666666666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.7731988388213997E-2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>0.2</v>
       </c>
@@ -1144,6 +1360,15 @@
       </c>
       <c r="C28" s="4">
         <v>0.143666666666667</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5.48657465499525E-2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.63433333333333297</v>
       </c>
     </row>
   </sheetData>
